--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -3,20 +3,21 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88504274-EABC-BE40-A773-80A3D68086D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74D27F-E859-664E-AD8C-8BC93534510B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
   <si>
     <t>Date of production</t>
   </si>
@@ -609,7 +610,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -797,4 +798,199 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1349A726-2501-8445-85AE-93F545697C46}">
+  <dimension ref="A1:F9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" t="s">
+        <v>29</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
+        <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
+        <v>35</v>
+      </c>
+      <c r="F7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>33</v>
+      </c>
+      <c r="E8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" t="s">
+        <v>31</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -3,33 +3,22 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA74D27F-E859-664E-AD8C-8BC93534510B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1E36B-DE45-7A48-9468-C1F096B82D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="39">
-  <si>
-    <t>Date of production</t>
-  </si>
-  <si>
-    <t>Speed</t>
-  </si>
-  <si>
-    <t>Retail price</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="57">
   <si>
     <t>Old</t>
   </si>
@@ -37,27 +26,9 @@
     <t>High</t>
   </si>
   <si>
-    <t>Expensive</t>
-  </si>
-  <si>
-    <t>Ford</t>
-  </si>
-  <si>
-    <t>Average</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Peugeot</t>
-  </si>
-  <si>
     <t>Low</t>
   </si>
   <si>
-    <t>Volkswagen</t>
-  </si>
-  <si>
     <t>Hoa</t>
   </si>
   <si>
@@ -134,13 +105,97 @@
   </si>
   <si>
     <t>Bị cháy</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t>Income</t>
+  </si>
+  <si>
+    <t>Student</t>
+  </si>
+  <si>
+    <t>Credit rating</t>
+  </si>
+  <si>
+    <t>Buys computer</t>
+  </si>
+  <si>
+    <t>Young</t>
+  </si>
+  <si>
+    <t>Midlle</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Fair</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t>STT</t>
+  </si>
+  <si>
+    <t>&lt;50</t>
+  </si>
+  <si>
+    <t>&lt;70</t>
+  </si>
+  <si>
+    <t>&lt;60</t>
+  </si>
+  <si>
+    <t>Trestbps</t>
+  </si>
+  <si>
+    <t>&lt;120</t>
+  </si>
+  <si>
+    <t>&lt;140</t>
+  </si>
+  <si>
+    <t>&lt;160</t>
+  </si>
+  <si>
+    <t>Chol</t>
+  </si>
+  <si>
+    <t>&lt;200</t>
+  </si>
+  <si>
+    <t>&gt;200</t>
+  </si>
+  <si>
+    <t>Gender</t>
+  </si>
+  <si>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Heart</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +213,11 @@
       <sz val="13"/>
       <color rgb="FF333333"/>
       <name val="Helvetica Neue"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -460,144 +520,200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="29.6640625" customWidth="1"/>
+    <col min="1" max="1" width="23.33203125" customWidth="1"/>
     <col min="2" max="2" width="16.83203125" customWidth="1"/>
     <col min="3" max="3" width="15.5" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" customWidth="1"/>
+    <col min="5" max="5" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="B6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2" t="s">
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="17" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>10</v>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -607,192 +723,312 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016FE87-7BE7-0347-BF19-55805749B2E7}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F9" sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D1" t="s">
+    <row r="1" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="D5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D3" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-      <c r="D7" t="s">
-        <v>33</v>
-      </c>
-      <c r="E7" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>26</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F8" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" t="s">
-        <v>31</v>
-      </c>
-      <c r="E9" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
+      <c r="B15" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -802,195 +1038,815 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1349A726-2501-8445-85AE-93F545697C46}">
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:J42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F9"/>
+      <selection activeCell="E28" sqref="E28:J42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B1" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F1" t="s">
         <v>27</v>
-      </c>
-      <c r="D1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E1" t="s">
-        <v>34</v>
-      </c>
-      <c r="F1" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
-        <v>23</v>
-      </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="E2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F3" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C4" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E4" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C5" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C6" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
+      <c r="E9" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E28" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D9" t="s">
+      <c r="F28" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="G28" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="E9" t="s">
+      <c r="H28" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J29" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="30" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E30" s="2">
+        <v>2</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I30" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J30" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="31" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E31" s="2">
+        <v>3</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E33" s="2">
+        <v>5</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E34" s="2">
+        <v>6</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I34" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E35" s="2">
+        <v>7</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I35" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E36" s="2">
+        <v>8</v>
+      </c>
+      <c r="F36" s="2" t="s">
         <v>35</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J36" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E37" s="2">
+        <v>9</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J37" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E38" s="2">
+        <v>10</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I38" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J38" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E39" s="2">
+        <v>11</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I39" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J39" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E40" s="2">
+        <v>12</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J40" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E41" s="2">
+        <v>13</v>
+      </c>
+      <c r="F41" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J41" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="5:10" ht="17" x14ac:dyDescent="0.2">
+      <c r="E42" s="2">
+        <v>14</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G42" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="J42" s="2" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38EDDCAC-E47F-EA48-9A83-DE936D201E49}">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D3" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>54</v>
+      </c>
+      <c r="F6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="C8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>45</v>
+      </c>
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D14" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" t="s">
+        <v>48</v>
+      </c>
+      <c r="D15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/DataSet.xlsx
+++ b/DataSet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10509"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23C1E36B-DE45-7A48-9468-C1F096B82D59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9135C4E3-8919-5E4E-98DF-3914F1200DF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -522,8 +522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:F9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -725,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2016FE87-7BE7-0347-BF19-55805749B2E7}">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="A1:F15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1040,7 +1040,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1349A726-2501-8445-85AE-93F545697C46}">
   <dimension ref="A1:J42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="E28" sqref="E28:J42"/>
     </sheetView>
   </sheetViews>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F15" sqref="A2:F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
